--- a/PLANEJAMENTO FIM DE ANO.xlsx
+++ b/PLANEJAMENTO FIM DE ANO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gelai\Documents\GitHub\gelman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba480b64684af11/Documentos/GitHub/gelman/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7A4E2A4B0C5C9E82D661615EF2F8FB54153A2E34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76D6B45-8B05-44A1-ACA6-4D8CEF3F7D7E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,9 +259,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,6 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,19 +588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
@@ -608,31 +609,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -652,686 +653,686 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.8</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.3</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.5</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.8</v>
       </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.8</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.1</v>
       </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.2</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.7</v>
       </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.7</v>
       </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1367,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1391,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1403,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1415,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1429,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1441,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1453,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
